--- a/db/users.xlsx
+++ b/db/users.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -34,6 +34,9 @@
     <t xml:space="preserve">Пароль</t>
   </si>
   <si>
+    <t xml:space="preserve">Email</t>
+  </si>
+  <si>
     <t xml:space="preserve">Код</t>
   </si>
   <si>
@@ -46,25 +49,27 @@
     <t xml:space="preserve">Итого</t>
   </si>
   <si>
-    <t xml:space="preserve">Пахалев Алексей Дмитриевич</t>
+    <t xml:space="preserve">Пахалев Аексей Дмитриевич</t>
   </si>
   <si>
     <t xml:space="preserve">admin</t>
   </si>
   <si>
-    <t xml:space="preserve">Фролкова Дарья Борисовна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Any_key</t>
+    <t xml:space="preserve">apahalev@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">282109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6.2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -131,16 +136,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -157,20 +158,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="29.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="27.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="26.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="27.23"/>
   </cols>
@@ -188,7 +189,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -197,48 +198,48 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>45074</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="C2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1"/>
       <c r="I2" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="0"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="0"/>
       <c r="E4" s="0"/>
       <c r="F4" s="0"/>

--- a/db/users.xlsx
+++ b/db/users.xlsx
@@ -584,7 +584,7 @@
       <c r="H3" s="2" t="n"/>
     </row>
     <row r="4" ht="12.75" customHeight="1" s="3">
-      <c r="A4" t="n">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -592,12 +592,12 @@
           <t>ADMIN</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>admin_0</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>admin_0</t>
         </is>

--- a/db/users.xlsx
+++ b/db/users.xlsx
@@ -453,7 +453,7 @@
       <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="29.21" customWidth="1" style="2" min="2" max="2"/>
     <col width="27.9" customWidth="1" style="2" min="5" max="5"/>
